--- a/Data_inputs/MISERS_MemberData_2015.xlsx
+++ b/Data_inputs/MISERS_MemberData_2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="776" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="776" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="20" r:id="rId1"/>
@@ -956,15 +956,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1047,6 +1038,15 @@
     </xf>
     <xf numFmtId="1" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3689,7 +3689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
@@ -5265,25 +5265,25 @@
       <c r="L6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40" t="s">
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Y6" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5315,31 +5315,31 @@
         <v>12</v>
       </c>
       <c r="L7" s="34"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="71"/>
+      <c r="P7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="40"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="72"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5362,37 +5362,37 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="37"/>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Y8" s="41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5414,37 +5414,37 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="37"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="V9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W9" s="46" t="s">
+      <c r="W9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="46" t="s">
+      <c r="X9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="46" t="s">
+      <c r="Y9" s="43" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5469,37 +5469,37 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="37"/>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="44">
         <v>7</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <v>17</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="44">
         <v>15</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S10" s="44">
         <v>38</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="44">
         <v>12</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="V10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W10" s="47">
+      <c r="W10" s="44">
         <v>89</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="45">
         <v>5707204</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y10" s="46">
         <v>64126</v>
       </c>
     </row>
@@ -5521,37 +5521,37 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="37"/>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="44">
         <v>13</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>36</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="44">
         <v>43</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="44">
         <v>358</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="44">
         <v>306</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="44">
         <v>55</v>
       </c>
-      <c r="V11" s="46" t="s">
+      <c r="V11" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W11" s="47">
+      <c r="W11" s="44">
         <v>811</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="45">
         <v>55838521</v>
       </c>
-      <c r="Y11" s="49">
+      <c r="Y11" s="46">
         <v>68851</v>
       </c>
     </row>
@@ -5576,37 +5576,37 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="44">
         <v>17</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="44">
         <v>42</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="44">
         <v>61</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="44">
         <v>486</v>
       </c>
-      <c r="T12" s="48">
+      <c r="T12" s="45">
         <v>1022</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="44">
         <v>674</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="44">
         <v>113</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="45">
         <v>2415</v>
       </c>
-      <c r="X12" s="48">
+      <c r="X12" s="45">
         <v>166208934</v>
       </c>
-      <c r="Y12" s="49">
+      <c r="Y12" s="46">
         <v>68824</v>
       </c>
     </row>
@@ -5628,37 +5628,37 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="37"/>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="44">
         <v>12</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="44">
         <v>36</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="44">
         <v>51</v>
       </c>
-      <c r="S13" s="47">
+      <c r="S13" s="44">
         <v>319</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="44">
         <v>944</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="45">
         <v>1647</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="44">
         <v>647</v>
       </c>
-      <c r="W13" s="48">
+      <c r="W13" s="45">
         <v>3656</v>
       </c>
-      <c r="X13" s="48">
+      <c r="X13" s="45">
         <v>251882564</v>
       </c>
-      <c r="Y13" s="49">
+      <c r="Y13" s="46">
         <v>68896</v>
       </c>
     </row>
@@ -5675,55 +5675,55 @@
       <c r="D14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="56">
         <v>7</v>
       </c>
-      <c r="F14" s="59">
+      <c r="F14" s="56">
         <v>17</v>
       </c>
-      <c r="G14" s="59">
+      <c r="G14" s="56">
         <v>15</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="56">
         <v>38</v>
       </c>
-      <c r="I14" s="59">
+      <c r="I14" s="56">
         <v>12</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="61"/>
-      <c r="O14" s="45" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
+      <c r="O14" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="44">
         <v>8</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="44">
         <v>38</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="44">
         <v>59</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="44">
         <v>264</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="44">
         <v>663</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="45">
         <v>1133</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="45">
         <v>1434</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="45">
         <v>3599</v>
       </c>
-      <c r="X14" s="48">
+      <c r="X14" s="45">
         <v>242871953</v>
       </c>
-      <c r="Y14" s="49">
+      <c r="Y14" s="46">
         <v>67483</v>
       </c>
     </row>
@@ -5737,57 +5737,57 @@
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="59">
         <v>64126</v>
       </c>
-      <c r="F15" s="62">
+      <c r="F15" s="59">
         <v>64126</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="59">
         <v>64126</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="59">
         <v>64126</v>
       </c>
-      <c r="I15" s="62">
+      <c r="I15" s="59">
         <v>64126</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="62">
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59">
         <v>64126</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="44">
         <v>7</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="44">
         <v>25</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="44">
         <v>27</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="44">
         <v>100</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="44">
         <v>318</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="44">
         <v>507</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="45">
         <v>1140</v>
       </c>
-      <c r="W15" s="48">
+      <c r="W15" s="45">
         <v>2124</v>
       </c>
-      <c r="X15" s="48">
+      <c r="X15" s="45">
         <v>147251983</v>
       </c>
-      <c r="Y15" s="49">
+      <c r="Y15" s="46">
         <v>69328</v>
       </c>
     </row>
@@ -5804,57 +5804,57 @@
       <c r="D16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="59">
+      <c r="E16" s="56">
         <v>13</v>
       </c>
-      <c r="F16" s="59">
+      <c r="F16" s="56">
         <v>36</v>
       </c>
-      <c r="G16" s="59">
+      <c r="G16" s="56">
         <v>43</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="56">
         <v>358</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="56">
         <v>306</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="56">
         <v>55</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="61"/>
-      <c r="O16" s="45" t="s">
+      <c r="K16" s="57"/>
+      <c r="L16" s="58"/>
+      <c r="O16" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="44">
         <v>2</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="44">
         <v>9</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="44">
         <v>9</v>
       </c>
-      <c r="S16" s="47">
+      <c r="S16" s="44">
         <v>36</v>
       </c>
-      <c r="T16" s="47">
+      <c r="T16" s="44">
         <v>66</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="44">
         <v>122</v>
       </c>
-      <c r="V16" s="47">
+      <c r="V16" s="44">
         <v>320</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="44">
         <v>564</v>
       </c>
-      <c r="X16" s="48">
+      <c r="X16" s="45">
         <v>41657954</v>
       </c>
-      <c r="Y16" s="49">
+      <c r="Y16" s="46">
         <v>73862</v>
       </c>
     </row>
@@ -5868,61 +5868,61 @@
       <c r="D17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="62">
+      <c r="E17" s="59">
         <v>68851</v>
       </c>
-      <c r="F17" s="62">
+      <c r="F17" s="59">
         <v>68851</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="59">
         <v>68851</v>
       </c>
-      <c r="H17" s="62">
+      <c r="H17" s="59">
         <v>68851</v>
       </c>
-      <c r="I17" s="62">
+      <c r="I17" s="59">
         <v>68851</v>
       </c>
-      <c r="J17" s="62">
+      <c r="J17" s="59">
         <v>68851</v>
       </c>
-      <c r="K17" s="62">
+      <c r="K17" s="59">
         <v>68851</v>
       </c>
-      <c r="L17" s="62">
+      <c r="L17" s="59">
         <v>68851</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="48">
         <v>3</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="48">
         <v>3</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="48">
         <v>1</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="48">
         <v>7</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="48">
         <v>13</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="48">
         <v>22</v>
       </c>
-      <c r="V17" s="51">
+      <c r="V17" s="48">
         <v>97</v>
       </c>
-      <c r="W17" s="51">
+      <c r="W17" s="48">
         <v>146</v>
       </c>
-      <c r="X17" s="52">
+      <c r="X17" s="49">
         <v>10673814</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y17" s="50">
         <v>73108</v>
       </c>
     </row>
@@ -5939,59 +5939,59 @@
       <c r="D18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="56">
         <v>17</v>
       </c>
-      <c r="F18" s="59">
+      <c r="F18" s="56">
         <v>42</v>
       </c>
-      <c r="G18" s="59">
+      <c r="G18" s="56">
         <v>61</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="56">
         <v>486</v>
       </c>
-      <c r="I18" s="62">
+      <c r="I18" s="59">
         <v>1022</v>
       </c>
-      <c r="J18" s="59">
+      <c r="J18" s="56">
         <v>674</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="56">
         <v>113</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="O18" s="54" t="s">
+      <c r="L18" s="60"/>
+      <c r="O18" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="52">
         <v>69</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="52">
         <v>206</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="52">
         <v>266</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="53">
         <v>1608</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="53">
         <v>3344</v>
       </c>
-      <c r="U18" s="56">
+      <c r="U18" s="53">
         <v>4160</v>
       </c>
-      <c r="V18" s="56">
+      <c r="V18" s="53">
         <v>3751</v>
       </c>
-      <c r="W18" s="56">
+      <c r="W18" s="53">
         <v>13404</v>
       </c>
-      <c r="X18" s="57" t="s">
+      <c r="X18" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y18" s="58">
+      <c r="Y18" s="55">
         <v>68792</v>
       </c>
     </row>
@@ -6005,28 +6005,28 @@
       <c r="D19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="62">
+      <c r="E19" s="59">
         <v>68824</v>
       </c>
-      <c r="F19" s="62">
+      <c r="F19" s="59">
         <v>68824</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="59">
         <v>68824</v>
       </c>
-      <c r="H19" s="62">
+      <c r="H19" s="59">
         <v>68824</v>
       </c>
-      <c r="I19" s="62">
+      <c r="I19" s="59">
         <v>68824</v>
       </c>
-      <c r="J19" s="62">
+      <c r="J19" s="59">
         <v>68824</v>
       </c>
-      <c r="K19" s="62">
+      <c r="K19" s="59">
         <v>68824</v>
       </c>
-      <c r="L19" s="62">
+      <c r="L19" s="59">
         <v>68824</v>
       </c>
       <c r="O19" s="10"/>
@@ -6053,28 +6053,28 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="56">
         <v>12</v>
       </c>
-      <c r="F20" s="59">
+      <c r="F20" s="56">
         <v>36</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="56">
         <v>51</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="56">
         <v>319</v>
       </c>
-      <c r="I20" s="59">
+      <c r="I20" s="56">
         <v>944</v>
       </c>
-      <c r="J20" s="62">
+      <c r="J20" s="59">
         <v>1647</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="56">
         <v>647</v>
       </c>
-      <c r="L20" s="63"/>
+      <c r="L20" s="60"/>
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -6096,28 +6096,28 @@
       <c r="D21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="62">
+      <c r="E21" s="59">
         <v>68896</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="59">
         <v>68896</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="59">
         <v>68896</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H21" s="59">
         <v>68896</v>
       </c>
-      <c r="I21" s="62">
+      <c r="I21" s="59">
         <v>68896</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="59">
         <v>68896</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="59">
         <v>68896</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="59">
         <v>68896</v>
       </c>
       <c r="O21" s="10"/>
@@ -6144,28 +6144,28 @@
       <c r="D22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="59">
+      <c r="E22" s="56">
         <v>8</v>
       </c>
-      <c r="F22" s="59">
+      <c r="F22" s="56">
         <v>38</v>
       </c>
-      <c r="G22" s="59">
+      <c r="G22" s="56">
         <v>59</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="56">
         <v>264</v>
       </c>
-      <c r="I22" s="59">
+      <c r="I22" s="56">
         <v>663</v>
       </c>
-      <c r="J22" s="62">
+      <c r="J22" s="59">
         <v>1133</v>
       </c>
-      <c r="K22" s="62">
+      <c r="K22" s="59">
         <v>1434</v>
       </c>
-      <c r="L22" s="63"/>
+      <c r="L22" s="60"/>
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -6187,28 +6187,28 @@
       <c r="D23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="62">
+      <c r="E23" s="59">
         <v>67483</v>
       </c>
-      <c r="F23" s="62">
+      <c r="F23" s="59">
         <v>67483</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="59">
         <v>67483</v>
       </c>
-      <c r="H23" s="62">
+      <c r="H23" s="59">
         <v>67483</v>
       </c>
-      <c r="I23" s="62">
+      <c r="I23" s="59">
         <v>67483</v>
       </c>
-      <c r="J23" s="62">
+      <c r="J23" s="59">
         <v>67483</v>
       </c>
-      <c r="K23" s="62">
+      <c r="K23" s="59">
         <v>67483</v>
       </c>
-      <c r="L23" s="62">
+      <c r="L23" s="59">
         <v>67483</v>
       </c>
       <c r="O23" s="10"/>
@@ -6235,28 +6235,28 @@
       <c r="D24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="59">
+      <c r="E24" s="56">
         <v>7</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="56">
         <v>25</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="56">
         <v>27</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="56">
         <v>100</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="56">
         <v>318</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="56">
         <v>507</v>
       </c>
-      <c r="K24" s="62">
+      <c r="K24" s="59">
         <v>1140</v>
       </c>
-      <c r="L24" s="63"/>
+      <c r="L24" s="60"/>
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -6278,28 +6278,28 @@
       <c r="D25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="62">
+      <c r="E25" s="59">
         <v>69328</v>
       </c>
-      <c r="F25" s="62">
+      <c r="F25" s="59">
         <v>69328</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="59">
         <v>69328</v>
       </c>
-      <c r="H25" s="62">
+      <c r="H25" s="59">
         <v>69328</v>
       </c>
-      <c r="I25" s="62">
+      <c r="I25" s="59">
         <v>69328</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="59">
         <v>69328</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K25" s="59">
         <v>69328</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L25" s="59">
         <v>69328</v>
       </c>
       <c r="O25" s="10"/>
@@ -6326,28 +6326,28 @@
       <c r="D26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="59">
+      <c r="E26" s="56">
         <v>2</v>
       </c>
-      <c r="F26" s="59">
+      <c r="F26" s="56">
         <v>9</v>
       </c>
-      <c r="G26" s="59">
+      <c r="G26" s="56">
         <v>9</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="56">
         <v>36</v>
       </c>
-      <c r="I26" s="59">
+      <c r="I26" s="56">
         <v>66</v>
       </c>
-      <c r="J26" s="59">
+      <c r="J26" s="56">
         <v>122</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="56">
         <v>320</v>
       </c>
-      <c r="L26" s="63"/>
+      <c r="L26" s="60"/>
       <c r="O26" s="14"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -6369,28 +6369,28 @@
       <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="59">
         <v>73862</v>
       </c>
-      <c r="F27" s="62">
+      <c r="F27" s="59">
         <v>73862</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="59">
         <v>73862</v>
       </c>
-      <c r="H27" s="62">
+      <c r="H27" s="59">
         <v>73862</v>
       </c>
-      <c r="I27" s="62">
+      <c r="I27" s="59">
         <v>73862</v>
       </c>
-      <c r="J27" s="62">
+      <c r="J27" s="59">
         <v>73862</v>
       </c>
-      <c r="K27" s="62">
+      <c r="K27" s="59">
         <v>73862</v>
       </c>
-      <c r="L27" s="62">
+      <c r="L27" s="59">
         <v>73862</v>
       </c>
       <c r="O27" s="14"/>
@@ -6417,28 +6417,28 @@
       <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="56">
         <v>3</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="56">
         <v>3</v>
       </c>
-      <c r="G28" s="59">
+      <c r="G28" s="56">
         <v>1</v>
       </c>
-      <c r="H28" s="59">
+      <c r="H28" s="56">
         <v>7</v>
       </c>
-      <c r="I28" s="59">
+      <c r="I28" s="56">
         <v>13</v>
       </c>
-      <c r="J28" s="59">
+      <c r="J28" s="56">
         <v>22</v>
       </c>
-      <c r="K28" s="59">
+      <c r="K28" s="56">
         <v>97</v>
       </c>
-      <c r="L28" s="63"/>
+      <c r="L28" s="60"/>
       <c r="O28" s="17"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -6460,50 +6460,50 @@
       <c r="D29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="59">
         <v>73108</v>
       </c>
-      <c r="F29" s="62">
+      <c r="F29" s="59">
         <v>73108</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="59">
         <v>73108</v>
       </c>
-      <c r="H29" s="62">
+      <c r="H29" s="59">
         <v>73108</v>
       </c>
-      <c r="I29" s="62">
+      <c r="I29" s="59">
         <v>73108</v>
       </c>
-      <c r="J29" s="62">
+      <c r="J29" s="59">
         <v>73108</v>
       </c>
-      <c r="K29" s="62">
+      <c r="K29" s="59">
         <v>73108</v>
       </c>
-      <c r="L29" s="62">
+      <c r="L29" s="59">
         <v>73108</v>
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="58"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="66"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6526,8 +6526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6618,25 +6618,25 @@
       <c r="L6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="P6" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40" t="s">
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="X6" s="41" t="s">
+      <c r="X6" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="Y6" s="40" t="s">
+      <c r="Y6" s="72" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6668,31 +6668,31 @@
         <v>12</v>
       </c>
       <c r="L7" s="34"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="42" t="s">
+      <c r="O7" s="71"/>
+      <c r="P7" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="42" t="s">
+      <c r="Q7" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="R7" s="42" t="s">
+      <c r="R7" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="U7" s="42" t="s">
+      <c r="U7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="V7" s="42" t="s">
+      <c r="V7" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="W7" s="40"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="40"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="72"/>
     </row>
     <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6707,7 +6707,9 @@
       <c r="D8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -6715,37 +6717,37 @@
       <c r="J8" s="36"/>
       <c r="K8" s="36"/>
       <c r="L8" s="37"/>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="R8" s="44" t="s">
+      <c r="R8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="S8" s="44" t="s">
+      <c r="S8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="T8" s="44" t="s">
+      <c r="T8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="U8" s="44" t="s">
+      <c r="U8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="V8" s="44" t="s">
+      <c r="V8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="W8" s="44" t="s">
+      <c r="W8" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="X8" s="44" t="s">
+      <c r="X8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" s="44" t="s">
+      <c r="Y8" s="41" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6759,45 +6761,47 @@
       <c r="D9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
+      <c r="E9" s="67">
+        <v>54523.918196794359</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="37"/>
-      <c r="O9" s="45" t="s">
+      <c r="O9" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="P9" s="46" t="s">
+      <c r="P9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="V9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W9" s="46" t="s">
+      <c r="W9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="X9" s="46" t="s">
+      <c r="X9" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="Y9" s="46" t="s">
+      <c r="Y9" s="43" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6814,45 +6818,49 @@
       <c r="D10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0</v>
+      </c>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="37"/>
-      <c r="O10" s="45" t="s">
+      <c r="O10" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P10" s="44">
         <v>7</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="44">
         <v>17</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="44">
         <v>15</v>
       </c>
-      <c r="S10" s="47">
+      <c r="S10" s="44">
         <v>38</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T10" s="44">
         <v>12</v>
       </c>
-      <c r="U10" s="46" t="s">
+      <c r="U10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="V10" s="46" t="s">
+      <c r="V10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W10" s="47">
+      <c r="W10" s="44">
         <v>89</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="45">
         <v>5707204</v>
       </c>
-      <c r="Y10" s="49">
+      <c r="Y10" s="46">
         <v>64126</v>
       </c>
     </row>
@@ -6866,45 +6874,49 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
+      <c r="E11" s="67">
+        <v>54523.918196794359</v>
+      </c>
+      <c r="F11" s="67">
+        <v>58877.797806822113</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="37"/>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="P11" s="47">
+      <c r="P11" s="44">
         <v>13</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="44">
         <v>36</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="44">
         <v>43</v>
       </c>
-      <c r="S11" s="47">
+      <c r="S11" s="44">
         <v>358</v>
       </c>
-      <c r="T11" s="47">
+      <c r="T11" s="44">
         <v>306</v>
       </c>
-      <c r="U11" s="47">
+      <c r="U11" s="44">
         <v>55</v>
       </c>
-      <c r="V11" s="46" t="s">
+      <c r="V11" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="W11" s="47">
+      <c r="W11" s="44">
         <v>811</v>
       </c>
-      <c r="X11" s="48">
+      <c r="X11" s="45">
         <v>55838521</v>
       </c>
-      <c r="Y11" s="49">
+      <c r="Y11" s="46">
         <v>68851</v>
       </c>
     </row>
@@ -6921,45 +6933,51 @@
       <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
-      <c r="O12" s="45" t="s">
+      <c r="O12" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="P12" s="47">
+      <c r="P12" s="44">
         <v>17</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="44">
         <v>42</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="44">
         <v>61</v>
       </c>
-      <c r="S12" s="47">
+      <c r="S12" s="44">
         <v>486</v>
       </c>
-      <c r="T12" s="48">
+      <c r="T12" s="45">
         <v>1022</v>
       </c>
-      <c r="U12" s="47">
+      <c r="U12" s="44">
         <v>674</v>
       </c>
-      <c r="V12" s="47">
+      <c r="V12" s="44">
         <v>113</v>
       </c>
-      <c r="W12" s="48">
+      <c r="W12" s="45">
         <v>2415</v>
       </c>
-      <c r="X12" s="48">
+      <c r="X12" s="45">
         <v>166208934</v>
       </c>
-      <c r="Y12" s="49">
+      <c r="Y12" s="46">
         <v>68824</v>
       </c>
     </row>
@@ -6973,45 +6991,51 @@
       <c r="D13" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="E13" s="67">
+        <v>54523.918196794359</v>
+      </c>
+      <c r="F13" s="67">
+        <v>58877.797806822113</v>
+      </c>
+      <c r="G13" s="67">
+        <v>62480.302590262283</v>
+      </c>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="37"/>
-      <c r="O13" s="45" t="s">
+      <c r="O13" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="47">
+      <c r="P13" s="44">
         <v>12</v>
       </c>
-      <c r="Q13" s="47">
+      <c r="Q13" s="44">
         <v>36</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="44">
         <v>51</v>
       </c>
-      <c r="S13" s="47">
+      <c r="S13" s="44">
         <v>319</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="44">
         <v>944</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="45">
         <v>1647</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="44">
         <v>647</v>
       </c>
-      <c r="W13" s="48">
+      <c r="W13" s="45">
         <v>3656</v>
       </c>
-      <c r="X13" s="48">
+      <c r="X13" s="45">
         <v>251882564</v>
       </c>
-      <c r="Y13" s="49">
+      <c r="Y13" s="46">
         <v>68896</v>
       </c>
     </row>
@@ -7028,55 +7052,57 @@
       <c r="D14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="65">
         <v>7</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="65">
         <v>17</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="65">
         <v>15</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="65">
         <v>38</v>
       </c>
-      <c r="I14" s="68">
+      <c r="I14" s="65">
         <v>12</v>
       </c>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="69"/>
-      <c r="O14" s="45" t="s">
+      <c r="J14" s="69">
+        <v>0</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="66"/>
+      <c r="O14" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="P14" s="47">
+      <c r="P14" s="44">
         <v>8</v>
       </c>
-      <c r="Q14" s="47">
+      <c r="Q14" s="44">
         <v>38</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="44">
         <v>59</v>
       </c>
-      <c r="S14" s="47">
+      <c r="S14" s="44">
         <v>264</v>
       </c>
-      <c r="T14" s="47">
+      <c r="T14" s="44">
         <v>663</v>
       </c>
-      <c r="U14" s="48">
+      <c r="U14" s="45">
         <v>1133</v>
       </c>
-      <c r="V14" s="48">
+      <c r="V14" s="45">
         <v>1434</v>
       </c>
-      <c r="W14" s="48">
+      <c r="W14" s="45">
         <v>3599</v>
       </c>
-      <c r="X14" s="48">
+      <c r="X14" s="45">
         <v>242871953</v>
       </c>
-      <c r="Y14" s="49">
+      <c r="Y14" s="46">
         <v>67483</v>
       </c>
     </row>
@@ -7090,61 +7116,59 @@
       <c r="D15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="70">
+      <c r="E15" s="67">
         <v>54523.918196794359</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="67">
         <v>58877.797806822113</v>
       </c>
-      <c r="G15" s="70">
+      <c r="G15" s="67">
         <v>62480.302590262283</v>
       </c>
-      <c r="H15" s="70">
+      <c r="H15" s="67">
         <v>66528.209977091989</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="67">
         <v>68638.477715387315</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="70">
         <v>70573.904183283754</v>
       </c>
-      <c r="K15" s="73">
-        <v>80960.360917232276</v>
-      </c>
-      <c r="L15" s="71">
+      <c r="K15" s="70"/>
+      <c r="L15" s="68">
         <v>64126</v>
       </c>
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="44">
         <v>7</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="44">
         <v>25</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="44">
         <v>27</v>
       </c>
-      <c r="S15" s="47">
+      <c r="S15" s="44">
         <v>100</v>
       </c>
-      <c r="T15" s="47">
+      <c r="T15" s="44">
         <v>318</v>
       </c>
-      <c r="U15" s="47">
+      <c r="U15" s="44">
         <v>507</v>
       </c>
-      <c r="V15" s="48">
+      <c r="V15" s="45">
         <v>1140</v>
       </c>
-      <c r="W15" s="48">
+      <c r="W15" s="45">
         <v>2124</v>
       </c>
-      <c r="X15" s="48">
+      <c r="X15" s="45">
         <v>147251983</v>
       </c>
-      <c r="Y15" s="49">
+      <c r="Y15" s="46">
         <v>69328</v>
       </c>
     </row>
@@ -7161,57 +7185,57 @@
       <c r="D16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="68">
+      <c r="E16" s="65">
         <v>13</v>
       </c>
-      <c r="F16" s="68">
+      <c r="F16" s="65">
         <v>36</v>
       </c>
-      <c r="G16" s="68">
+      <c r="G16" s="65">
         <v>43</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="65">
         <v>358</v>
       </c>
-      <c r="I16" s="68">
+      <c r="I16" s="65">
         <v>306</v>
       </c>
-      <c r="J16" s="68">
+      <c r="J16" s="65">
         <v>55</v>
       </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="67"/>
-      <c r="O16" s="45" t="s">
+      <c r="K16" s="69"/>
+      <c r="L16" s="64"/>
+      <c r="O16" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="44">
         <v>2</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="44">
         <v>9</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="44">
         <v>9</v>
       </c>
-      <c r="S16" s="47">
+      <c r="S16" s="44">
         <v>36</v>
       </c>
-      <c r="T16" s="47">
+      <c r="T16" s="44">
         <v>66</v>
       </c>
-      <c r="U16" s="47">
+      <c r="U16" s="44">
         <v>122</v>
       </c>
-      <c r="V16" s="47">
+      <c r="V16" s="44">
         <v>320</v>
       </c>
-      <c r="W16" s="47">
+      <c r="W16" s="44">
         <v>564</v>
       </c>
-      <c r="X16" s="48">
+      <c r="X16" s="45">
         <v>41657954</v>
       </c>
-      <c r="Y16" s="49">
+      <c r="Y16" s="46">
         <v>73862</v>
       </c>
     </row>
@@ -7225,61 +7249,61 @@
       <c r="D17" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="67">
         <v>56468.231504541429</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="67">
         <v>60977.369693667468</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="67">
         <v>64708.339162392811</v>
       </c>
-      <c r="H17" s="70">
+      <c r="H17" s="67">
         <v>68900.594212798969</v>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="67">
         <v>71086.113726501702</v>
       </c>
-      <c r="J17" s="70">
+      <c r="J17" s="67">
         <v>73090.557160935903</v>
       </c>
-      <c r="K17" s="70">
+      <c r="K17" s="67">
         <v>83847.393110392513</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="68">
         <v>68851</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="P17" s="51">
+      <c r="P17" s="48">
         <v>3</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="48">
         <v>3</v>
       </c>
-      <c r="R17" s="51">
+      <c r="R17" s="48">
         <v>1</v>
       </c>
-      <c r="S17" s="51">
+      <c r="S17" s="48">
         <v>7</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="48">
         <v>13</v>
       </c>
-      <c r="U17" s="51">
+      <c r="U17" s="48">
         <v>22</v>
       </c>
-      <c r="V17" s="51">
+      <c r="V17" s="48">
         <v>97</v>
       </c>
-      <c r="W17" s="51">
+      <c r="W17" s="48">
         <v>146</v>
       </c>
-      <c r="X17" s="52">
+      <c r="X17" s="49">
         <v>10673814</v>
       </c>
-      <c r="Y17" s="53">
+      <c r="Y17" s="50">
         <v>73108</v>
       </c>
     </row>
@@ -7296,59 +7320,59 @@
       <c r="D18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="68">
+      <c r="E18" s="65">
         <v>17</v>
       </c>
-      <c r="F18" s="68">
+      <c r="F18" s="65">
         <v>42</v>
       </c>
-      <c r="G18" s="68">
+      <c r="G18" s="65">
         <v>61</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="65">
         <v>486</v>
       </c>
-      <c r="I18" s="68">
+      <c r="I18" s="65">
         <v>1022</v>
       </c>
-      <c r="J18" s="68">
+      <c r="J18" s="65">
         <v>674</v>
       </c>
-      <c r="K18" s="68">
+      <c r="K18" s="65">
         <v>113</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="O18" s="54" t="s">
+      <c r="L18" s="68"/>
+      <c r="O18" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="52">
         <v>69</v>
       </c>
-      <c r="Q18" s="55">
+      <c r="Q18" s="52">
         <v>206</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="52">
         <v>266</v>
       </c>
-      <c r="S18" s="56">
+      <c r="S18" s="53">
         <v>1608</v>
       </c>
-      <c r="T18" s="56">
+      <c r="T18" s="53">
         <v>3344</v>
       </c>
-      <c r="U18" s="56">
+      <c r="U18" s="53">
         <v>4160</v>
       </c>
-      <c r="V18" s="56">
+      <c r="V18" s="53">
         <v>3751</v>
       </c>
-      <c r="W18" s="56">
+      <c r="W18" s="53">
         <v>13404</v>
       </c>
-      <c r="X18" s="57" t="s">
+      <c r="X18" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="Y18" s="58">
+      <c r="Y18" s="55">
         <v>68792</v>
       </c>
     </row>
@@ -7362,28 +7386,28 @@
       <c r="D19" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="67">
         <v>54712.569346682947</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="67">
         <v>59081.513251832403</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="67">
         <v>62696.48259564078</v>
       </c>
-      <c r="H19" s="70">
+      <c r="H19" s="67">
         <v>66758.395622718352</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="67">
         <v>68875.964825188814</v>
       </c>
-      <c r="J19" s="70">
+      <c r="J19" s="67">
         <v>70818.087811618185</v>
       </c>
-      <c r="K19" s="70">
+      <c r="K19" s="67">
         <v>81240.481379729215</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="68">
         <v>68824</v>
       </c>
       <c r="O19" s="10"/>
@@ -7410,28 +7434,28 @@
       <c r="D20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="65">
         <v>12</v>
       </c>
-      <c r="F20" s="68">
+      <c r="F20" s="65">
         <v>36</v>
       </c>
-      <c r="G20" s="68">
+      <c r="G20" s="65">
         <v>51</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="65">
         <v>319</v>
       </c>
-      <c r="I20" s="68">
+      <c r="I20" s="65">
         <v>944</v>
       </c>
-      <c r="J20" s="68">
+      <c r="J20" s="65">
         <v>1647</v>
       </c>
-      <c r="K20" s="68">
+      <c r="K20" s="65">
         <v>647</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="68"/>
       <c r="O20" s="10"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -7453,28 +7477,28 @@
       <c r="D21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="67">
         <v>53072.644742602613</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="67">
         <v>57310.636314687566</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="67">
         <v>60817.252546209384</v>
       </c>
-      <c r="H21" s="70">
+      <c r="H21" s="67">
         <v>64757.416015693881</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="67">
         <v>66811.514358041328</v>
       </c>
-      <c r="J21" s="70">
+      <c r="J21" s="67">
         <v>68695.4252131885</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="67">
         <v>78805.423661679903</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="68">
         <v>68896</v>
       </c>
       <c r="O21" s="10"/>
@@ -7501,28 +7525,28 @@
       <c r="D22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="65">
         <v>8</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="65">
         <v>38</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="65">
         <v>59</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="65">
         <v>264</v>
       </c>
-      <c r="I22" s="68">
+      <c r="I22" s="65">
         <v>663</v>
       </c>
-      <c r="J22" s="68">
+      <c r="J22" s="65">
         <v>1133</v>
       </c>
-      <c r="K22" s="68">
+      <c r="K22" s="65">
         <v>1434</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="68"/>
       <c r="O22" s="10"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -7544,28 +7568,28 @@
       <c r="D23" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="67">
         <v>50081.923383385991</v>
       </c>
-      <c r="F23" s="70">
+      <c r="F23" s="67">
         <v>54081.097915613871</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="67">
         <v>57390.111180239081</v>
       </c>
-      <c r="H23" s="70">
+      <c r="H23" s="67">
         <v>61108.240660195755</v>
       </c>
-      <c r="I23" s="70">
+      <c r="I23" s="67">
         <v>63046.587548735239</v>
       </c>
-      <c r="J23" s="70">
+      <c r="J23" s="67">
         <v>64824.337264548318</v>
       </c>
-      <c r="K23" s="70">
+      <c r="K23" s="67">
         <v>74364.622474737902</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="68">
         <v>67483</v>
       </c>
       <c r="O23" s="10"/>
@@ -7592,28 +7616,28 @@
       <c r="D24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="65">
         <v>7</v>
       </c>
-      <c r="F24" s="68">
+      <c r="F24" s="65">
         <v>25</v>
       </c>
-      <c r="G24" s="68">
+      <c r="G24" s="65">
         <v>27</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="65">
         <v>100</v>
       </c>
-      <c r="I24" s="68">
+      <c r="I24" s="65">
         <v>318</v>
       </c>
-      <c r="J24" s="68">
+      <c r="J24" s="65">
         <v>507</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="65">
         <v>1140</v>
       </c>
-      <c r="L24" s="71"/>
+      <c r="L24" s="68"/>
       <c r="O24" s="10"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -7635,28 +7659,28 @@
       <c r="D25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="67">
         <v>50539.968650659008</v>
       </c>
-      <c r="F25" s="70">
+      <c r="F25" s="67">
         <v>54575.719313429297</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="67">
         <v>57914.996548821015</v>
       </c>
-      <c r="H25" s="70">
+      <c r="H25" s="67">
         <v>61667.131743741258</v>
       </c>
-      <c r="I25" s="70">
+      <c r="I25" s="67">
         <v>63623.206597954748</v>
       </c>
-      <c r="J25" s="70">
+      <c r="J25" s="67">
         <v>65417.215470539631</v>
       </c>
-      <c r="K25" s="70">
+      <c r="K25" s="67">
         <v>75044.755366526922</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="68">
         <v>69328</v>
       </c>
       <c r="O25" s="10"/>
@@ -7683,28 +7707,28 @@
       <c r="D26" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="65">
         <v>2</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="65">
         <v>9</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="65">
         <v>9</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="65">
         <v>36</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="65">
         <v>66</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="65">
         <v>122</v>
       </c>
-      <c r="K26" s="68">
+      <c r="K26" s="65">
         <v>320</v>
       </c>
-      <c r="L26" s="71"/>
+      <c r="L26" s="68"/>
       <c r="O26" s="14"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
@@ -7726,28 +7750,28 @@
       <c r="D27" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="67">
         <v>53680.357862731034</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="67">
         <v>57966.876940724935</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="67">
         <v>61513.645998650754</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="67">
         <v>65498.926666410734</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="67">
         <v>67576.545647662322</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="67">
         <v>69482.028394494526</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="67">
         <v>79707.792294875951</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L27" s="68">
         <v>73862</v>
       </c>
       <c r="O27" s="14"/>
@@ -7774,28 +7798,28 @@
       <c r="D28" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="65">
         <v>3</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="65">
         <v>3</v>
       </c>
-      <c r="G28" s="68">
+      <c r="G28" s="65">
         <v>1</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="65">
         <v>7</v>
       </c>
-      <c r="I28" s="68">
+      <c r="I28" s="65">
         <v>13</v>
       </c>
-      <c r="J28" s="68">
+      <c r="J28" s="65">
         <v>22</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="65">
         <v>97</v>
       </c>
-      <c r="L28" s="71"/>
+      <c r="L28" s="68"/>
       <c r="O28" s="17"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -7817,28 +7841,28 @@
       <c r="D29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="67">
         <v>51973.113465682967</v>
       </c>
-      <c r="F29" s="70">
+      <c r="F29" s="67">
         <v>56123.304546433283</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="67">
         <v>59557.272538143203</v>
       </c>
-      <c r="H29" s="70">
+      <c r="H29" s="67">
         <v>63415.805763047159</v>
       </c>
-      <c r="I29" s="70">
+      <c r="I29" s="67">
         <v>65427.348371000109</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="67">
         <v>67272.229347040848</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="67">
         <v>77172.774138989625</v>
       </c>
-      <c r="L29" s="71">
+      <c r="L29" s="68">
         <v>73108</v>
       </c>
     </row>
@@ -8043,7 +8067,7 @@
         <f>(D6*D7+E6*E7+F6*F7+G6*G7+H6*H7+I6*I7+J6*J7)/SUM(D6:J6)</f>
         <v>1.2688813884852816</v>
       </c>
-      <c r="M7" s="62">
+      <c r="M7" s="59">
         <v>64126</v>
       </c>
       <c r="N7">
@@ -8115,7 +8139,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="38"/>
-      <c r="M8" s="61"/>
+      <c r="M8" s="58"/>
       <c r="P8" s="23">
         <v>42</v>
       </c>
@@ -8177,7 +8201,7 @@
         <f>(D8*D9+E8*E9+F8*F9+G8*G9+H8*H9+I8*I9+J8*J9)/SUM(D8:J8)</f>
         <v>1.3154671280283428</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="59">
         <v>68851</v>
       </c>
       <c r="N9">
@@ -8251,7 +8275,7 @@
       <c r="J10" s="35">
         <v>73</v>
       </c>
-      <c r="M10" s="63"/>
+      <c r="M10" s="60"/>
       <c r="P10" s="23">
         <v>47</v>
       </c>
@@ -8315,7 +8339,7 @@
         <f>(D10*D11+E10*E11+F10*F11+G10*G11+H10*H11+I10*I11+J10*J11)/SUM(D10:J10)</f>
         <v>1.357146509397235</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="59">
         <v>68824</v>
       </c>
       <c r="N11">
@@ -8389,7 +8413,7 @@
       <c r="J12" s="35">
         <v>586</v>
       </c>
-      <c r="M12" s="63"/>
+      <c r="M12" s="60"/>
       <c r="P12" s="23">
         <v>52</v>
       </c>
@@ -8453,7 +8477,7 @@
         <f>(D12*D13+E12*E13+F12*F13+G12*G13+H12*H13+I12*I13+J12*J13)/SUM(D12:J12)</f>
         <v>1.4005454668999147</v>
       </c>
-      <c r="M13" s="62">
+      <c r="M13" s="59">
         <v>68896</v>
       </c>
       <c r="N13">
@@ -8527,7 +8551,7 @@
       <c r="J14" s="35">
         <v>1495</v>
       </c>
-      <c r="M14" s="63"/>
+      <c r="M14" s="60"/>
       <c r="P14" s="23">
         <v>57</v>
       </c>
@@ -8591,7 +8615,7 @@
         <f>(D14*D15+E14*E15+F14*F15+G14*G15+H14*H15+I14*I15+J14*J15)/SUM(D14:J14)</f>
         <v>1.4537419266763376</v>
       </c>
-      <c r="M15" s="62">
+      <c r="M15" s="59">
         <v>67483</v>
       </c>
       <c r="N15">
@@ -8665,7 +8689,7 @@
       <c r="J16" s="35">
         <v>1099</v>
       </c>
-      <c r="M16" s="63"/>
+      <c r="M16" s="60"/>
       <c r="P16" s="23">
         <v>62</v>
       </c>
@@ -8729,7 +8753,7 @@
         <f>(D16*D17+E16*E17+F16*F17+G16*G17+H16*H17+I16*I17+J16*J17)/SUM(D16:J16)</f>
         <v>1.4799520264341703</v>
       </c>
-      <c r="M17" s="62">
+      <c r="M17" s="59">
         <v>69328</v>
       </c>
       <c r="N17">
@@ -8803,7 +8827,7 @@
       <c r="J18" s="35">
         <v>282</v>
       </c>
-      <c r="M18" s="63"/>
+      <c r="M18" s="60"/>
       <c r="P18" s="23">
         <v>67</v>
       </c>
@@ -8867,7 +8891,7 @@
         <f>(D18*D19+E18*E19+F18*F19+G18*G19+H18*H19+I18*I19+J18*J19)/SUM(D18:J18)</f>
         <v>1.4844979249843908</v>
       </c>
-      <c r="M19" s="62">
+      <c r="M19" s="59">
         <v>73862</v>
       </c>
       <c r="N19">
@@ -8941,7 +8965,7 @@
       <c r="J20" s="35">
         <v>108</v>
       </c>
-      <c r="M20" s="63"/>
+      <c r="M20" s="60"/>
       <c r="P20" s="23">
         <v>72</v>
       </c>
@@ -9005,7 +9029,7 @@
         <f>(D20*D21+E20*E21+F20*F21+G20*G21+H20*H21+I20*I21+J20*J21)/SUM(D20:J20)</f>
         <v>1.5176097331261864</v>
       </c>
-      <c r="M21" s="62">
+      <c r="M21" s="59">
         <v>73108</v>
       </c>
       <c r="N21">
@@ -9052,7 +9076,7 @@
       </c>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="M22" s="61"/>
+      <c r="M22" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
